--- a/biology/Médecine/Franz_Tangl/Franz_Tangl.xlsx
+++ b/biology/Médecine/Franz_Tangl/Franz_Tangl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Tangl ou Ferenc Tangl (né à Budapest le 26 janvier 1866 et mort dans la même ville le 19 décembre 1917) est un physio-pathologiste hongrois, membre de l'Académie hongroise des sciences.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l'Université Loránd-Eötvös de Budapest et travaille comme assistant à l'Institut de pathologie de cette ville et à l'Institut d'histologie de Graz. Il devient d'abord professeur d'histologie et de physiologie à l'Université vétérinaire de Budapest et en 1903, il obtient la chaire de chimie médicale de l'Université de cette ville puis, en 1914, celle de physiologie.
 Le 22 décembre 1917, il est enterré dans le cimetière de Kerepesi puis, le 25 avril 1954, son corps est exhumé et déplacé au cimetière de Farkasrét.
